--- a/attendance-files/SM-II/SM-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1628,12 +1628,24 @@
       <c r="L7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1660,11 +1672,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1684,12 +1696,24 @@
       <c r="L8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="M8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -1716,11 +1740,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1740,12 +1764,24 @@
       <c r="L9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
+      <c r="M9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -1772,11 +1808,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1796,12 +1832,24 @@
       <c r="L10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="M10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -1828,11 +1876,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>23</v>
@@ -1852,12 +1900,24 @@
       <c r="L11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
+      <c r="M11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
@@ -1884,11 +1944,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>23</v>
@@ -1908,12 +1968,24 @@
       <c r="L12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
+      <c r="M12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
@@ -1940,11 +2012,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>23</v>
@@ -1964,12 +2036,24 @@
       <c r="L13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
+      <c r="M13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -1996,11 +2080,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2020,12 +2104,24 @@
       <c r="L14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="M14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -2052,11 +2148,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2076,12 +2172,24 @@
       <c r="L15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="M15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
@@ -2112,7 +2220,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>23</v>
@@ -2132,12 +2240,24 @@
       <c r="L16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
+      <c r="M16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -2168,7 +2288,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>23</v>
@@ -2188,12 +2308,24 @@
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="M17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -2220,11 +2352,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2244,12 +2376,24 @@
       <c r="L18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="M18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
@@ -2276,11 +2420,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2300,12 +2444,24 @@
       <c r="L19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+      <c r="M19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -2332,11 +2488,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2356,12 +2512,24 @@
       <c r="L20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="M20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -2392,7 +2560,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2412,12 +2580,24 @@
       <c r="L21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+      <c r="M21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -2444,11 +2624,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2468,12 +2648,24 @@
       <c r="L22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="M22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -2504,7 +2696,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2524,12 +2716,24 @@
       <c r="L23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="M23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -2556,11 +2760,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>23</v>
@@ -2580,12 +2784,24 @@
       <c r="L24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
+      <c r="M24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
@@ -2616,7 +2832,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2636,12 +2852,24 @@
       <c r="L25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
+      <c r="M25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
@@ -2668,11 +2896,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>23</v>
@@ -2692,12 +2920,24 @@
       <c r="L26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="M26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
@@ -2728,7 +2968,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2748,12 +2988,24 @@
       <c r="L27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
+      <c r="M27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
@@ -2784,7 +3036,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2804,12 +3056,24 @@
       <c r="L28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
+      <c r="M28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
@@ -2836,11 +3100,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>23</v>
@@ -2860,12 +3124,24 @@
       <c r="L29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
+      <c r="M29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
@@ -2892,11 +3168,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -2916,12 +3192,24 @@
       <c r="L30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
+      <c r="M30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
@@ -2952,7 +3240,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -2972,12 +3260,24 @@
       <c r="L31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
+      <c r="M31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
@@ -3004,11 +3304,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3028,12 +3328,24 @@
       <c r="L32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
+      <c r="M32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -3064,7 +3376,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3084,12 +3396,24 @@
       <c r="L33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
+      <c r="M33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
@@ -3116,11 +3440,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3140,12 +3464,24 @@
       <c r="L34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
+      <c r="M34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
@@ -3172,11 +3508,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3196,12 +3532,24 @@
       <c r="L35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
+      <c r="M35" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
@@ -3232,7 +3580,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>23</v>
@@ -3252,12 +3600,24 @@
       <c r="L36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
+      <c r="M36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
@@ -3288,7 +3648,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3308,12 +3668,24 @@
       <c r="L37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
+      <c r="M37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3340,11 +3712,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3364,12 +3736,24 @@
       <c r="L38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
+      <c r="M38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
@@ -3396,11 +3780,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3420,12 +3804,24 @@
       <c r="L39" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
+      <c r="M39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
@@ -3452,11 +3848,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3476,12 +3872,24 @@
       <c r="L40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
+      <c r="M40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
@@ -3512,7 +3920,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3532,12 +3940,24 @@
       <c r="L41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
+      <c r="M41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
@@ -3564,11 +3984,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>23</v>
@@ -3588,12 +4008,24 @@
       <c r="L42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
+      <c r="M42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
@@ -3620,11 +4052,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3644,12 +4076,24 @@
       <c r="L43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
+      <c r="M43" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
@@ -3676,11 +4120,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3700,12 +4144,24 @@
       <c r="L44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
+      <c r="M44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
@@ -3732,11 +4188,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>23</v>
@@ -3756,12 +4212,24 @@
       <c r="L45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
+      <c r="M45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
@@ -3788,11 +4256,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3812,12 +4280,24 @@
       <c r="L46" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
+      <c r="M46" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
@@ -3848,7 +4328,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -3868,12 +4348,24 @@
       <c r="L47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
+      <c r="M47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
@@ -3900,11 +4392,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -3924,12 +4416,24 @@
       <c r="L48" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
+      <c r="M48" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
@@ -3956,11 +4460,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -3980,12 +4484,24 @@
       <c r="L49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
+      <c r="M49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
@@ -4012,11 +4528,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>23</v>
@@ -4036,12 +4552,24 @@
       <c r="L50" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
+      <c r="M50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
@@ -4072,7 +4600,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4092,12 +4620,24 @@
       <c r="L51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
+      <c r="M51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
@@ -4124,12 +4664,12 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F52" s="34">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F52" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G52" s="28" t="s">
         <v>23</v>
       </c>
@@ -4148,12 +4688,24 @@
       <c r="L52" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
+      <c r="M52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
@@ -4184,7 +4736,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4204,12 +4756,24 @@
       <c r="L53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
+      <c r="M53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
@@ -4236,11 +4800,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4260,12 +4824,24 @@
       <c r="L54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
+      <c r="M54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
@@ -4292,11 +4868,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>23</v>
@@ -4316,12 +4892,24 @@
       <c r="L55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
+      <c r="M55" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
@@ -4348,11 +4936,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4372,12 +4960,24 @@
       <c r="L56" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
+      <c r="M56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
@@ -4404,11 +5004,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4428,12 +5028,24 @@
       <c r="L57" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
+      <c r="M57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
@@ -4460,11 +5072,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>23</v>
@@ -4484,12 +5096,24 @@
       <c r="L58" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
+      <c r="M58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
@@ -4516,11 +5140,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4540,12 +5164,24 @@
       <c r="L59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
+      <c r="M59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
@@ -4576,7 +5212,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4596,12 +5232,24 @@
       <c r="L60" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
+      <c r="M60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
@@ -4628,11 +5276,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4652,12 +5300,24 @@
       <c r="L61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
+      <c r="M61" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
@@ -4688,7 +5348,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4708,12 +5368,24 @@
       <c r="L62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
+      <c r="M62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
@@ -4740,11 +5412,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>23</v>
@@ -4764,12 +5436,24 @@
       <c r="L63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
+      <c r="M63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
@@ -4796,11 +5480,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -4820,12 +5504,24 @@
       <c r="L64" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
+      <c r="M64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
@@ -4852,11 +5548,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -4876,12 +5572,24 @@
       <c r="L65" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
+      <c r="M65" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
@@ -4908,11 +5616,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -4932,12 +5640,24 @@
       <c r="L66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
+      <c r="M66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R66" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
@@ -4964,11 +5684,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -4988,12 +5708,24 @@
       <c r="L67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
+      <c r="M67" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
@@ -5020,11 +5752,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>23</v>
@@ -5044,12 +5776,24 @@
       <c r="L68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
+      <c r="M68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
@@ -5076,11 +5820,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5100,12 +5844,24 @@
       <c r="L69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
+      <c r="M69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
@@ -5136,7 +5892,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5156,12 +5912,24 @@
       <c r="L70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
+      <c r="M70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
@@ -5192,7 +5960,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5212,12 +5980,24 @@
       <c r="L71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
+      <c r="M71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
@@ -5244,11 +6024,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5268,12 +6048,24 @@
       <c r="L72" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
+      <c r="M72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
@@ -5300,11 +6092,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>23</v>
@@ -5324,12 +6116,24 @@
       <c r="L73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
+      <c r="M73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
@@ -5356,11 +6160,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5380,12 +6184,24 @@
       <c r="L74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
+      <c r="M74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
@@ -5412,11 +6228,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5436,12 +6252,24 @@
       <c r="L75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
+      <c r="M75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
@@ -5468,11 +6296,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5492,12 +6320,24 @@
       <c r="L76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
+      <c r="M76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
@@ -5524,11 +6364,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5548,12 +6388,24 @@
       <c r="L77" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="M77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
@@ -5580,11 +6432,11 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -5604,12 +6456,24 @@
       <c r="L78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
+      <c r="M78" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
@@ -5640,7 +6504,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>23</v>
@@ -5660,12 +6524,24 @@
       <c r="L79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
+      <c r="M79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S79" s="35"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35"/>
@@ -5692,11 +6568,11 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -5716,12 +6592,24 @@
       <c r="L80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
+      <c r="M80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R80" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35"/>

--- a/attendance-files/SM-II/SM-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1646,9 +1646,7 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
@@ -1678,7 +1676,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1716,9 +1714,7 @@
       <c r="R8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
@@ -1748,7 +1744,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1786,9 +1782,7 @@
       <c r="R9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
@@ -1814,7 +1808,7 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
@@ -1856,9 +1850,7 @@
       <c r="R10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
@@ -1888,7 +1880,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>23</v>
@@ -1926,9 +1918,7 @@
       <c r="R11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
@@ -1958,7 +1948,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>23</v>
@@ -1996,9 +1986,7 @@
       <c r="R12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
       <c r="V12" s="35"/>
@@ -2028,7 +2016,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>23</v>
@@ -2066,9 +2054,7 @@
       <c r="R13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
@@ -2098,7 +2084,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2136,9 +2122,7 @@
       <c r="R14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
@@ -2168,7 +2152,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2206,9 +2190,7 @@
       <c r="R15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
@@ -2238,7 +2220,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>23</v>
@@ -2276,9 +2258,7 @@
       <c r="R16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
@@ -2304,7 +2284,7 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
@@ -2346,9 +2326,7 @@
       <c r="R17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
@@ -2378,7 +2356,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2416,9 +2394,7 @@
       <c r="R18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
@@ -2444,7 +2420,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2486,9 +2462,7 @@
       <c r="R19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
@@ -2518,7 +2492,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2556,9 +2530,7 @@
       <c r="R20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
@@ -2588,7 +2560,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2626,9 +2598,7 @@
       <c r="R21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
@@ -2658,7 +2628,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2696,9 +2666,7 @@
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
@@ -2724,7 +2692,7 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
@@ -2766,9 +2734,7 @@
       <c r="R23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
@@ -2798,7 +2764,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>23</v>
@@ -2836,9 +2802,7 @@
       <c r="R24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
@@ -2868,7 +2832,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2906,9 +2870,7 @@
       <c r="R25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
@@ -2938,7 +2900,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>23</v>
@@ -2976,9 +2938,7 @@
       <c r="R26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
@@ -3008,7 +2968,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3046,9 +3006,7 @@
       <c r="R27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
@@ -3078,7 +3036,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -3116,9 +3074,7 @@
       <c r="R28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
@@ -3148,7 +3104,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>23</v>
@@ -3186,9 +3142,7 @@
       <c r="R29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
@@ -3218,7 +3172,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3256,9 +3210,7 @@
       <c r="R30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
@@ -3288,7 +3240,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3326,9 +3278,7 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
@@ -3358,7 +3308,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3396,9 +3346,7 @@
       <c r="R32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S32" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
       <c r="V32" s="35"/>
@@ -3424,7 +3372,7 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -3466,9 +3414,7 @@
       <c r="R33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
@@ -3498,7 +3444,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3536,9 +3482,7 @@
       <c r="R34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
@@ -3564,7 +3508,7 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
@@ -3606,9 +3550,7 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
@@ -3638,7 +3580,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>23</v>
@@ -3676,9 +3618,7 @@
       <c r="R36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
@@ -3704,7 +3644,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3746,9 +3686,7 @@
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
@@ -3774,7 +3712,7 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
@@ -3816,9 +3754,7 @@
       <c r="R38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
@@ -3844,7 +3780,7 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
@@ -3886,9 +3822,7 @@
       <c r="R39" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S39" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -3918,7 +3852,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3956,9 +3890,7 @@
       <c r="R40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -3988,7 +3920,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -4026,9 +3958,7 @@
       <c r="R41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -4058,7 +3988,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>23</v>
@@ -4096,9 +4026,7 @@
       <c r="R42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
@@ -4128,7 +4056,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4166,9 +4094,7 @@
       <c r="R43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -4194,7 +4120,7 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
@@ -4236,9 +4162,7 @@
       <c r="R44" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S44" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
@@ -4268,7 +4192,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>23</v>
@@ -4306,9 +4230,7 @@
       <c r="R45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S45" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
@@ -4338,7 +4260,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4376,9 +4298,7 @@
       <c r="R46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
@@ -4408,7 +4328,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4446,9 +4366,7 @@
       <c r="R47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
@@ -4478,7 +4396,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4516,9 +4434,7 @@
       <c r="R48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
@@ -4544,7 +4460,7 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
@@ -4586,9 +4502,7 @@
       <c r="R49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
@@ -4618,7 +4532,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>23</v>
@@ -4656,9 +4570,7 @@
       <c r="R50" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S50" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
       <c r="V50" s="35"/>
@@ -4684,7 +4596,7 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -4726,9 +4638,7 @@
       <c r="R51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
       <c r="V51" s="35"/>
@@ -4758,7 +4668,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>23</v>
@@ -4796,9 +4706,7 @@
       <c r="R52" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S52" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
       <c r="V52" s="35"/>
@@ -4828,7 +4736,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4866,9 +4774,7 @@
       <c r="R53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
       <c r="V53" s="35"/>
@@ -4898,7 +4804,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4936,9 +4842,7 @@
       <c r="R54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S54" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
@@ -4968,7 +4872,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>23</v>
@@ -5006,9 +4910,7 @@
       <c r="R55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
       <c r="V55" s="35"/>
@@ -5034,7 +4936,7 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
@@ -5076,9 +4978,7 @@
       <c r="R56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
       <c r="V56" s="35"/>
@@ -5108,7 +5008,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -5146,9 +5046,7 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
       <c r="V57" s="35"/>
@@ -5174,7 +5072,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -5216,9 +5114,7 @@
       <c r="R58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
       <c r="V58" s="35"/>
@@ -5248,7 +5144,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5286,9 +5182,7 @@
       <c r="R59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
       <c r="V59" s="35"/>
@@ -5314,7 +5208,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -5356,9 +5250,7 @@
       <c r="R60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
       <c r="V60" s="35"/>
@@ -5384,7 +5276,7 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -5426,9 +5318,7 @@
       <c r="R61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
       <c r="V61" s="35"/>
@@ -5454,7 +5344,7 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
@@ -5496,9 +5386,7 @@
       <c r="R62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
       <c r="V62" s="35"/>
@@ -5528,7 +5416,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>23</v>
@@ -5566,9 +5454,7 @@
       <c r="R63" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S63" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
       <c r="V63" s="35"/>
@@ -5594,7 +5480,7 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
@@ -5636,9 +5522,7 @@
       <c r="R64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
       <c r="V64" s="35"/>
@@ -5668,7 +5552,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5706,9 +5590,7 @@
       <c r="R65" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S65" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
@@ -5738,7 +5620,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5776,9 +5658,7 @@
       <c r="R66" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S66" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
@@ -5804,7 +5684,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -5846,9 +5726,7 @@
       <c r="R67" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S67" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
@@ -5878,7 +5756,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>23</v>
@@ -5916,9 +5794,7 @@
       <c r="R68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
       <c r="V68" s="35"/>
@@ -5948,7 +5824,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5986,9 +5862,7 @@
       <c r="R69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
       <c r="V69" s="35"/>
@@ -6018,7 +5892,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -6056,9 +5930,7 @@
       <c r="R70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
       <c r="V70" s="35"/>
@@ -6088,7 +5960,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -6126,9 +5998,7 @@
       <c r="R71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
       <c r="V71" s="35"/>
@@ -6158,7 +6028,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -6196,9 +6066,7 @@
       <c r="R72" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S72" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
       <c r="V72" s="35"/>
@@ -6228,7 +6096,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>23</v>
@@ -6266,9 +6134,7 @@
       <c r="R73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
       <c r="V73" s="35"/>
@@ -6298,7 +6164,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -6336,9 +6202,7 @@
       <c r="R74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
       <c r="V74" s="35"/>
@@ -6368,7 +6232,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6406,9 +6270,7 @@
       <c r="R75" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S75" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
       <c r="V75" s="35"/>
@@ -6438,7 +6300,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -6476,9 +6338,7 @@
       <c r="R76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
       <c r="V76" s="35"/>
@@ -6508,7 +6368,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -6546,9 +6406,7 @@
       <c r="R77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
       <c r="V77" s="35"/>
@@ -6574,7 +6432,7 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
@@ -6616,9 +6474,7 @@
       <c r="R78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
       <c r="V78" s="35"/>
@@ -6648,7 +6504,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>23</v>
@@ -6686,9 +6542,7 @@
       <c r="R79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S79" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S79" s="35"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35"/>
       <c r="V79" s="35"/>
@@ -6718,7 +6572,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -6756,9 +6610,7 @@
       <c r="R80" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S80" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35"/>
       <c r="V80" s="35"/>
